--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>501030</t>
-  </si>
-  <si>
-    <t>501031</t>
-  </si>
-  <si>
-    <t>164908</t>
-  </si>
-  <si>
-    <t>汇添富中证环境治理指数（LOF）A</t>
-  </si>
-  <si>
-    <t>汇添富中证环境治理指数（LOF）C</t>
-  </si>
-  <si>
-    <t>交银施罗德中证环境治理指数（LOF）</t>
-  </si>
-  <si>
-    <t>10.23</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>91.23</t>
-  </si>
-  <si>
-    <t>93.89</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>0.2578</t>
-  </si>
-  <si>
-    <t>0.1056</t>
-  </si>
-  <si>
-    <t>0.0886</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,895 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2578</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1432</t>
+          <t>0.4280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -713,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050012</t>
+          <t>014185</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时策略混合</t>
+          <t>招商专精特新股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>86.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1392</t>
+          <t>0.2928</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -751,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005459</t>
+          <t>014186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合A</t>
+          <t>招商专精特新股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>35.78</t>
+          <t>86.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0401</t>
+          <t>0.1852</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -789,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004677</t>
+          <t>004895</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时战略新兴产业混合</t>
+          <t>华商鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.1555</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -827,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005460</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河嘉谊灵活配置混合C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35.78</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.1229</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -865,36 +795,682 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>77.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,36 +1933,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>000264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>博时内需增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>77.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4280</t>
+          <t>0.1432</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1395,36 +1971,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014185</t>
+          <t>050012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商专精特新股票A</t>
+          <t>博时策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>77.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2928</t>
+          <t>0.1392</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1433,36 +2009,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014186</t>
+          <t>005459</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商专精特新股票C</t>
+          <t>银河嘉谊灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>35.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1852</t>
+          <t>0.0401</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1471,36 +2047,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004895</t>
+          <t>004677</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商鑫安灵活配置混合</t>
+          <t>博时战略新兴产业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1555</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1509,36 +2085,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>005460</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>银河嘉谊灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>35.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1229</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1547,682 +2123,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>77.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0449</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>44.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000826</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000827</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>44.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005381</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004617</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信鑫稳回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004730</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信量化事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005000</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004618</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信鑫稳回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005111</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>970073</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>013413</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>970074</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东证融汇成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2236,96 +2166,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.73</v>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.73</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -549,6 +566,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1478,7 +2235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1876,7 +2633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2160,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
+++ b/数据整理/stocks/A股/深证主板/002549-凯美特气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.05</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1305,7 +1530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2235,7 +2460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2633,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2917,7 +3142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
